--- a/Dataset/Folds/Fold_5/Excel/39.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4556" uniqueCount="641">
   <si>
     <t>Doi</t>
   </si>
@@ -2074,6 +2074,224 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                           Cao%Yi-yuan%coreGivesNoEmail%2,                           Dong%Xiang%coreGivesNoEmail%2,                           Gao%Ya-dong%coreGivesNoEmail%2,                           Yan%You-qin%coreGivesNoEmail%2,                           Yang%Yi-bin%coreGivesNoEmail%2,                           Yuan%Ya-dong%coreGivesNoEmail%2,                           Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                             Dengju%Li%NULL%1,                             Xiong%Wang%NULL%0,                             Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                             Yun%Ling%NULL%5,                             Yi‐hui‐zhi%Zhang%NULL%1,                             Li‐ya%Wei%NULL%1,                             Xiao%Chen%NULL%1,                             Xu‐mian%Li%NULL%1,                             Xuan‐yong%Liu%NULL%1,                             Han‐mian%Liu%NULL%1,                             Zhi%Guo%guozhi77@126.com%1,                             Hua%Ren%renhua2009@hotmail.com%2,                             Hua%Ren%renhua2009@hotmail.com%0,                             Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                             Kun%Yang%NULL%0,                             Kun%Yang%NULL%0,                             Wenxia%Wang%NULL%0,                             Wenxia%Wang%NULL%0,                             Lingyu%Jiang%NULL%0,                             Lingyu%Jiang%NULL%0,                             Jianxin%Song%songsingsjx@sina.com%0,                             Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                             Yeming%Wang%NULL%0,                             Xingwang%Li%NULL%0,                             Lili%Ren%NULL%0,                             Jianping%Zhao%NULL%0,                             Yi%Hu%NULL%0,                             Li%Zhang%NULL%0,                             Guohui%Fan%NULL%0,                             Jiuyang%Xu%NULL%0,                             Xiaoying%Gu%NULL%0,                             Zhenshun%Cheng%NULL%0,                             Ting%Yu%NULL%0,                             Jiaan%Xia%NULL%0,                             Yuan%Wei%NULL%0,                             Wenjuan%Wu%NULL%0,                             Xuelei%Xie%NULL%0,                             Wen%Yin%NULL%0,                             Hui%Li%NULL%0,                             Min%Liu%NULL%0,                             Yan%Xiao%NULL%0,                             Hong%Gao%NULL%0,                             Li%Guo%NULL%0,                             Jungang%Xie%NULL%0,                             Guangfa%Wang%NULL%0,                             Rongmeng%Jiang%NULL%0,                             Zhancheng%Gao%NULL%0,                             Qi%Jin%NULL%0,                             Jianwei%Wang%wangjw28@163.com%0,                             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                             Yang%Yang%NULL%2,                             Cong%Zhang%NULL%2,                             Fengming%Huang%NULL%2,                             Fuxiang%Wang%NULL%2,                             Jing%Yuan%NULL%2,                             Zhaoqin%Wang%NULL%2,                             Jinxiu%Li%NULL%2,                             Jianming%Li%NULL%2,                             Cheng%Feng%NULL%2,                             Zheng%Zhang%NULL%2,                             Lifei%Wang%NULL%2,                             Ling%Peng%NULL%2,                             Li%Chen%NULL%2,                             Yuhao%Qin%NULL%2,                             Dandan%Zhao%NULL%2,                             Shuguang%Tan%NULL%2,                             Lu%Yin%NULL%3,                             Jun%Xu%NULL%2,                             Congzhao%Zhou%NULL%2,                             Chengyu%Jiang%jiang@pumc.edu.cn%2,                             Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                             Tuantuan%Li%NULL%1,                             Mingfeng%Han%NULL%1,                             Xiuyong%Li%NULL%1,                             Dong%Wu%NULL%1,                             Yuanhong%Xu%NULL%3,                             Yulin%Zhu%NULL%1,                             Yan%Liu%NULL%2,                             Xiaowu%Wang%wangxiaowu19880218@126.com%1,                             Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                             Zheng-yi%Ni%NULL%13,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Wen-hua%Liang%NULL%6,                             Chun-quan%Ou%NULL%6,                             Jian-xing%He%NULL%8,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%8,                             David S.C.%Hui%NULL%5,                             Bin%Du%NULL%5,                             Lan-juan%Li%NULL%5,                             Guang%Zeng%NULL%5,                             Kwok-Yung%Yuen%NULL%8,                             Ru-chong%Chen%NULL%8,                             Chun-li%Tang%NULL%8,                             Tao%Wang%NULL%0,                             Ping-yan%Chen%NULL%6,                             Jie%Xiang%NULL%0,                             Shi-yue%Li%NULL%8,                             Jin-lin%Wang%NULL%5,                             Zi-jing%Liang%NULL%5,                             Yi-xiang%Peng%NULL%8,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%8,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%8,                             Ji-yang%Liu%NULL%8,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%8,                             Shao-qin%Qiu%NULL%8,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%8,                             Shao-yong%Zhu%NULL%8,                             Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                             Jiong%Wu%NULL%2,                             Faqi%Wu%NULL%2,                             Dajing%Guo%NULL%2,                             Linli%Chen%NULL%2,                             Zheng%Fang%NULL%2,                             Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                             Zhao-Wu%Tao%NULL%1,                             Lei%Wang%NULL%2,                             Ming-Li%Yuan%NULL%3,                             Kui%Liu%NULL%0,                             Ling%Zhou%NULL%0,                             Shuang%Wei%NULL%0,                             Yan%Deng%NULL%2,                             Jing%Liu%NULL%3,                             Hui-Guo%Liu%NULL%0,                             Ming%Yang%NULL%2,                             Yi%Hu%NULL%0,                             Pei-Fang%Wei%NULL%0,                             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                             Luoqi%Zhou%NULL%1,                             Ziwei%Hu%NULL%1,                             Shuoqi%Zhang%NULL%1,                             Sheng%Yang%NULL%1,                             Yu%Tao%NULL%0,                             Cuihong%Xie%NULL%1,                             Ke%Ma%NULL%0,                             Ke%Shang%NULL%1,                             Wei%Wang%NULL%5,                             Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                             Hui%Li%NULL%0,                             Xiao-Xia%Lu%NULL%1,                             Han%Xiao%NULL%1,                             Jie%Ren%NULL%1,                             Fu-Rong%Zhang%792523496@qq.com%1,                             Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                             Yi%Xiang%NULL%3,                             Wei%Fang%NULL%3,                             Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                             Boqun%Li%279685211@qq.com%6,                             Boqun%Li%279685211@qq.com%0,                             Yanjun%Hu%huyanjun@163.com%3,                             Chunhui%Lang%NULL%4,                             Daoqiu%Huang%NULL%3,                             Qiuyan%Sun%NULL%3,                             Yan%Xiong%NULL%3,                             Xia%Huang%NULL%3,                             Jinglong%Lv%NULL%4,                             Yaling%Luo%NULL%3,                             Li%Shen%NULL%3,                             Haoran%Yang%NULL%3,                             Gu%Huang%NULL%3,                             Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                             Bohan%Yang%NULL%2,                             Qianwen%Li%NULL%2,                             Lu%Wen%NULL%2,                             Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%0,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%0,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%0,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%0,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%0,                             Shangwen%Pan%NULL%0,                             Xiaojing%Zou%NULL%0,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                              Ting%Yu%NULL%0,                              Ronghui%Du%NULL%0,                              Guohui%Fan%NULL%0,                              Ying%Liu%NULL%0,                              Zhibo%Liu%NULL%0,                              Jie%Xiang%NULL%0,                              Yeming%Wang%NULL%0,                              Bin%Song%NULL%0,                              Xiaoying%Gu%NULL%0,                              Lulu%Guan%NULL%0,                              Yuan%Wei%NULL%0,                              Hui%Li%NULL%0,                              Xudong%Wu%NULL%0,                              Jiuyang%Xu%NULL%0,                              Shengjin%Tu%NULL%0,                              Yi%Zhang%NULL%0,                              Hua%Chen%NULL%0,                              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                              Dengju%Li%NULL%1,                              Xiong%Wang%NULL%0,                              Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                              Yun%Ling%NULL%5,                              Yi‐hui‐zhi%Zhang%NULL%1,                              Li‐ya%Wei%NULL%1,                              Xiao%Chen%NULL%1,                              Xu‐mian%Li%NULL%1,                              Xuan‐yong%Liu%NULL%1,                              Han‐mian%Liu%NULL%1,                              Zhi%Guo%guozhi77@126.com%1,                              Hua%Ren%renhua2009@hotmail.com%2,                              Hua%Ren%renhua2009@hotmail.com%0,                              Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                              Kun%Yang%NULL%0,                              Kun%Yang%NULL%0,                              Wenxia%Wang%NULL%0,                              Wenxia%Wang%NULL%0,                              Lingyu%Jiang%NULL%0,                              Lingyu%Jiang%NULL%0,                              Jianxin%Song%songsingsjx@sina.com%0,                              Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                              Yeming%Wang%NULL%0,                              Xingwang%Li%NULL%0,                              Lili%Ren%NULL%0,                              Jianping%Zhao%NULL%0,                              Yi%Hu%NULL%0,                              Li%Zhang%NULL%0,                              Guohui%Fan%NULL%0,                              Jiuyang%Xu%NULL%0,                              Xiaoying%Gu%NULL%0,                              Zhenshun%Cheng%NULL%0,                              Ting%Yu%NULL%0,                              Jiaan%Xia%NULL%0,                              Yuan%Wei%NULL%0,                              Wenjuan%Wu%NULL%0,                              Xuelei%Xie%NULL%0,                              Wen%Yin%NULL%0,                              Hui%Li%NULL%0,                              Min%Liu%NULL%0,                              Yan%Xiao%NULL%0,                              Hong%Gao%NULL%0,                              Li%Guo%NULL%0,                              Jungang%Xie%NULL%0,                              Guangfa%Wang%NULL%0,                              Rongmeng%Jiang%NULL%0,                              Zhancheng%Gao%NULL%0,                              Qi%Jin%NULL%0,                              Jianwei%Wang%wangjw28@163.com%0,                              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                              Yang%Yang%NULL%2,                              Cong%Zhang%NULL%2,                              Fengming%Huang%NULL%2,                              Fuxiang%Wang%NULL%2,                              Jing%Yuan%NULL%2,                              Zhaoqin%Wang%NULL%2,                              Jinxiu%Li%NULL%2,                              Jianming%Li%NULL%2,                              Cheng%Feng%NULL%2,                              Zheng%Zhang%NULL%2,                              Lifei%Wang%NULL%2,                              Ling%Peng%NULL%2,                              Li%Chen%NULL%2,                              Yuhao%Qin%NULL%2,                              Dandan%Zhao%NULL%2,                              Shuguang%Tan%NULL%2,                              Lu%Yin%NULL%3,                              Jun%Xu%NULL%2,                              Congzhao%Zhou%NULL%2,                              Chengyu%Jiang%jiang@pumc.edu.cn%2,                              Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                              Tuantuan%Li%NULL%1,                              Mingfeng%Han%NULL%1,                              Xiuyong%Li%NULL%1,                              Dong%Wu%NULL%1,                              Yuanhong%Xu%NULL%3,                              Yulin%Zhu%NULL%1,                              Yan%Liu%NULL%2,                              Xiaowu%Wang%wangxiaowu19880218@126.com%1,                              Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                              Zheng-yi%Ni%NULL%13,                              Zheng-yi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Wen-hua%Liang%NULL%6,                              Chun-quan%Ou%NULL%6,                              Jian-xing%He%NULL%8,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chun-liang%Lei%NULL%8,                              David S.C.%Hui%NULL%5,                              Bin%Du%NULL%5,                              Lan-juan%Li%NULL%5,                              Guang%Zeng%NULL%5,                              Kwok-Yung%Yuen%NULL%8,                              Ru-chong%Chen%NULL%8,                              Chun-li%Tang%NULL%8,                              Tao%Wang%NULL%0,                              Ping-yan%Chen%NULL%6,                              Jie%Xiang%NULL%0,                              Shi-yue%Li%NULL%8,                              Jin-lin%Wang%NULL%5,                              Zi-jing%Liang%NULL%5,                              Yi-xiang%Peng%NULL%8,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Ya-hua%Hu%NULL%8,                              Peng%Peng%NULL%0,                              Jian-ming%Wang%NULL%8,                              Ji-yang%Liu%NULL%8,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhi-jian%Zheng%NULL%8,                              Shao-qin%Qiu%NULL%8,                              Jie%Luo%NULL%0,                              Chang-jiang%Ye%NULL%8,                              Shao-yong%Zhu%NULL%8,                              Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                              Jiong%Wu%NULL%2,                              Faqi%Wu%NULL%2,                              Dajing%Guo%NULL%2,                              Linli%Chen%NULL%2,                              Zheng%Fang%NULL%2,                              Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                              Zhao-Wu%Tao%NULL%1,                              Lei%Wang%NULL%2,                              Ming-Li%Yuan%NULL%3,                              Kui%Liu%NULL%0,                              Ling%Zhou%NULL%0,                              Shuang%Wei%NULL%0,                              Yan%Deng%NULL%2,                              Jing%Liu%NULL%3,                              Hui-Guo%Liu%NULL%0,                              Ming%Yang%NULL%2,                              Yi%Hu%NULL%0,                              Pei-Fang%Wei%NULL%0,                              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%2,                              Luoqi%Zhou%NULL%1,                              Ziwei%Hu%NULL%1,                              Shuoqi%Zhang%NULL%1,                              Sheng%Yang%NULL%1,                              Yu%Tao%NULL%0,                              Cuihong%Xie%NULL%1,                              Ke%Ma%NULL%0,                              Ke%Shang%NULL%1,                              Wei%Wang%NULL%5,                              Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                              Hui%Li%NULL%0,                              Xiao-Xia%Lu%NULL%1,                              Han%Xiao%NULL%1,                              Jie%Ren%NULL%1,                              Fu-Rong%Zhang%792523496@qq.com%1,                              Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                              Yi%Xiang%NULL%3,                              Wei%Fang%NULL%3,                              Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                              Boqun%Li%279685211@qq.com%6,                              Boqun%Li%279685211@qq.com%0,                              Yanjun%Hu%huyanjun@163.com%3,                              Chunhui%Lang%NULL%4,                              Daoqiu%Huang%NULL%3,                              Qiuyan%Sun%NULL%3,                              Yan%Xiong%NULL%3,                              Xia%Huang%NULL%3,                              Jinglong%Lv%NULL%4,                              Yaling%Luo%NULL%3,                              Li%Shen%NULL%3,                              Haoran%Yang%NULL%3,                              Gu%Huang%NULL%3,                              Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                              Bohan%Yang%NULL%2,                              Qianwen%Li%NULL%2,                              Lu%Wen%NULL%2,                              Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                              Yuan%Yu%NULL%0,                              Jiqian%Xu%NULL%0,                              Huaqing%Shu%NULL%0,                              Jia'an%Xia%NULL%0,                              Hong%Liu%NULL%0,                              Yongran%Wu%NULL%0,                              Lu%Zhang%NULL%0,                              Zhui%Yu%NULL%0,                              Minghao%Fang%NULL%0,                              Ting%Yu%NULL%0,                              Yaxin%Wang%NULL%0,                              Shangwen%Pan%NULL%0,                              Xiaojing%Zou%NULL%0,                              Shiying%Yuan%NULL%0,                              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0, Dengju%Li%NULL%0, Xiong%Wang%NULL%0, Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>International Society on Thrombosis and Haemostasis. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>Since December 2019, novel coronavirus infected pneumonia emerged in Wuhan city and rapidly spread throughout China.
+ In severe novel coronavirus pneumonia cases, the number of platelets, their dynamic changes during the treatment, platelet‐to‐lymphocyte ratio (PLR) were a concern.
+ We sought to describe the platelet feature of these cases.
+ Single‐center case series of the 30 hospitalized patients with confirmed coronavirus disease (COVID)‐19 in Huizhou municipal central hospital from January 2020 to February 2020 were retrospectively analyzed.
+ Demographic, clinical, blood routine results, other laboratory results, and treatment data were collected and analyzed.
+ Outcomes of severe patients and nonsevere patients were compared.
+ Univariate analysis showed that: age, platelet peaks, and PLR at peak platelet were the influencing factors in severe patients, multivariate analysis showed that the PLR value at peak platelet during treatment was an independent influencing factor in severe patients.
+ The average hospitalization day of patients with platelet peaks during treatment was longer than those without platelet peaks (P &amp;lt; .
+05).
+ The average age of patients with platelet peaks during treatment was older than those without platelet peaks (P &amp;lt; .
+05).
+ The patients with significantly elevated platelets during treatment had longer average hospitalization days.
+ And the higher PLR of patients during treatment had longer average hospitalization days.
+ Single‐center case series of the 30 hospitalized patients with confirmed COVID‐19 in Huizhou Municipal Central Hospital, presumed that the number of platelets and their dynamic changes during the treatment may have a suggestion on the severity and prognosis of the disease.
+ The patient with markedly elevated platelets and longer average hospitalization days may be related to the cytokine storm.
+ The PLR of patients means the degree of cytokine storm, which might provide a new indicator in the monitoring in patients with COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%0, Yun%Ling%NULL%0, Yi‐hui‐zhi%Zhang%NULL%1, Li‐ya%Wei%NULL%1, Xiao%Chen%NULL%1, Xu‐mian%Li%NULL%1, Xuan‐yong%Liu%NULL%1, Han‐mian%Liu%NULL%1, Zhi%Guo%guozhi77@126.com%1, Hua%Ren%renhua2009@hotmail.com%2, Hua%Ren%renhua2009@hotmail.com%0, Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0, Kun%Yang%NULL%0, Kun%Yang%NULL%0, Wenxia%Wang%NULL%0, Wenxia%Wang%NULL%0, Lingyu%Jiang%NULL%0, Lingyu%Jiang%NULL%0, Jianxin%Song%songsingsjx@sina.com%0, Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0, Yang%Yang%NULL%0, Cong%Zhang%NULL%0, Fengming%Huang%NULL%0, Fuxiang%Wang%NULL%0, Jing%Yuan%NULL%0, Zhaoqin%Wang%NULL%0, Jinxiu%Li%NULL%0, Jianming%Li%NULL%0, Cheng%Feng%NULL%0, Zheng%Zhang%NULL%0, Lifei%Wang%NULL%0, Ling%Peng%NULL%0, Li%Chen%NULL%0, Yuhao%Qin%NULL%0, Dandan%Zhao%NULL%0, Shuguang%Tan%NULL%0, Lu%Yin%NULL%0, Jun%Xu%NULL%0, Congzhao%Zhou%NULL%0, Chengyu%Jiang%jiang@pumc.edu.cn%0, Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>Science China Press</t>
+  </si>
+  <si>
+    <t>[Bingwen Eugene%Fan%bingwen_eugene_fan@ttsh.com.sg%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The role of clinical laboratory data in the differential diagnosis of the severe forms of COVID‐19 has not been definitely established.
+ The aim of this study was to look for the warning index in severe COVID‐19 patients.
+ We investigated 43 adult patients with COVID‐19. The patients were classified into mild group (28 patients) and severe group (15 patients).
+ A comparison of the hematological parameters between the mild and severe groups showed significant differences in interleukin‐6 (IL‐6), d‐dimer (d‐D), glucose, thrombin time, fibrinogen, and C‐reactive protein (P &amp;lt; .
+05).
+ The optimal threshold and area under the receiver operator characteristic curve (ROC) of IL‐6 were 24.3 and 0.795 µg/L, respectively, while those of d‐D were 0.28 and 0.750 µg/L, respectively.
+ The area under the ROC curve of IL‐6 combined with d‐D was 0.840. The specificity of predicting the severity of COVID‐19 during IL‐6 and d‐D tandem testing was up to 93.3%, while the sensitivity of IL‐6 and d‐D by parallel test in the severe COVID‐19 was 96.4%.
+ IL‐6 and d‐D were closely related to the occurrence of severe COVID‐19 in the adult patients, and their combined detection had the highest specificity and sensitivity for early prediction of the severity of COVID‐19 patients, which has important clinical value.
+</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0, Tuantuan%Li%NULL%0, Mingfeng%Han%NULL%0, Xiuyong%Li%NULL%0, Dong%Wu%NULL%0, Yuanhong%Xu%NULL%0, Yulin%Zhu%NULL%0, Yan%Liu%NULL%0, Xiaowu%Wang%wangxiaowu19880218@126.com%0, Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0, Jiong%Wu%NULL%0, Faqi%Wu%NULL%0, Dajing%Guo%NULL%0, Linli%Chen%NULL%0, Zheng%Fang%NULL%0, Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Zhao-Wu%Tao%NULL%0, Lei%Wang%NULL%0, Ming-Li%Yuan%NULL%0, Kui%Liu%NULL%0, Ling%Zhou%NULL%0, Shuang%Wei%NULL%0, Yan%Deng%NULL%0, Jing%Liu%NULL%0, Hui-Guo%Liu%NULL%0, Ming%Yang%NULL%0, Yi%Hu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0, Luoqi%Zhou%NULL%2, Ziwei%Hu%NULL%2, Shuoqi%Zhang%NULL%2, Sheng%Yang%NULL%2, Yu%Tao%NULL%0, Cuihong%Xie%NULL%0, Ke%Ma%NULL%0, Ke%Shang%NULL%2, Wei%Wang%NULL%0, Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0, Hui%Li%NULL%0, Xiao-Xia%Lu%NULL%0, Han%Xiao%NULL%0, Jie%Ren%NULL%0, Fu-Rong%Zhang%792523496@qq.com%0, Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t>The outbreak of the novel coronavirus in China (SARS‐CoV‐2) that began in December 2019 presents a significant and urgent threat to global health.
+ This study was conducted to provide the international community with a deeper understanding of this new infectious disease.
+ Epidemiological, clinical features, laboratory findings, radiological characteristics, treatment, and clinical outcomes of 135 patients in northeast Chongqing were collected and analyzed in this study.
+ A total of 135 hospitalized patients with COVID‐19 were enrolled.
+ The median age was 47 years (interquartile range, 36‐55), and there was no significant gender difference (53.3% men).
+ The majority of patients had contact with people from the Wuhan area.
+ Forty‐three (31.9%) patients had underlying disease, primarily hypertension (13 [9.6%]), diabetes (12 [8.9%]), cardiovascular disease (7 [5.2%]), and malignancy (4 [3.0%]).
+ Common symptoms included fever (120 [88.9%]), cough (102 [76.5%]), and fatigue (44 [32.5%]).
+ Chest computed tomography scans showed bilateral patchy shadows or ground glass opacity in the lungs of all the patients.
+ All patients received antiviral therapy (135 [100%]) (Kaletra and interferon were both used), antibacterial therapy (59 [43.7%]), and corticosteroids (36 [26.7%]).
+ In addition, many patients received traditional Chinese medicine (TCM) (124 [91.8%]).
+ It is suggested that patients should receive Kaletra early and should be treated by a combination of Western and Chinese medicines.
+ Compared to the mild cases, the severe ones had lower lymphocyte counts and higher plasma levels of Pt, APTT, d‐dimer, lactate dehydrogenase, PCT, ALB, C‐reactive protein, and aspartate aminotransferase.
+ This study demonstrates the clinic features and therapies of 135 COVID‐19 patients.
+ Kaletra and TCM played an important role in the treatment of the viral pneumonia.
+ Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%0, Wei%Fang%NULL%0, Yu%Zheng%yuzheng1@cdutcm.edu.cn%0, Boqun%Li%279685211@qq.com%0, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%0, Chunhui%Lang%NULL%0, Daoqiu%Huang%NULL%0, Qiuyan%Sun%NULL%0, Yan%Xiong%NULL%0, Xia%Huang%NULL%0, Jinglong%Lv%NULL%0, Yaling%Luo%NULL%0, Li%Shen%NULL%0, Haoran%Yang%NULL%0, Gu%Huang%NULL%0, Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%0, Qianwen%Li%NULL%0, Lu%Wen%NULL%0, Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2446,28 +2664,28 @@
         <v>43942</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>459</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>460</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2484,7 +2702,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2496,10 +2714,10 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>417</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2510,25 +2728,25 @@
         <v>43907</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>565</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>415</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
@@ -2548,7 +2766,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -2560,10 +2778,10 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>417</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2577,10 +2795,10 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>615</v>
       </c>
       <c r="E6" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2592,10 +2810,10 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2612,7 +2830,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>568</v>
+        <v>618</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -2624,10 +2842,10 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2644,7 +2862,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>569</v>
+        <v>620</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2656,10 +2874,10 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>417</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2676,7 +2894,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2688,10 +2906,10 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2708,7 +2926,7 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>623</v>
       </c>
       <c r="F10" t="s">
         <v>60</v>
@@ -2720,10 +2938,10 @@
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2737,10 +2955,10 @@
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>625</v>
       </c>
       <c r="E11" t="s">
-        <v>571</v>
+        <v>626</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -2752,10 +2970,10 @@
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2772,7 +2990,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2784,10 +3002,10 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2798,28 +3016,28 @@
         <v>44007</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>459</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>470</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2836,7 +3054,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>573</v>
+        <v>629</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -2848,10 +3066,10 @@
         <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,7 +3086,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2880,10 +3098,10 @@
         <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2900,7 +3118,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -2912,10 +3130,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2929,10 +3147,10 @@
         <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>576</v>
+        <v>635</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -2944,10 +3162,10 @@
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2961,10 +3179,10 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>637</v>
       </c>
       <c r="E18" t="s">
-        <v>577</v>
+        <v>638</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2976,10 +3194,10 @@
         <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2996,7 +3214,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -3008,10 +3226,10 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3022,28 +3240,28 @@
         <v>44013</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>459</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>460</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3060,7 +3278,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>579</v>
+        <v>640</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -3072,10 +3290,10 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>417</v>
+        <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3086,25 +3304,25 @@
         <v>44013</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>580</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>415</v>
+        <v>49</v>
       </c>
       <c r="J22" t="s">
         <v>49</v>
